--- a/Design Documents/Database Design.xlsx
+++ b/Design Documents/Database Design.xlsx
@@ -1017,9 +1017,6 @@
     <t>NPO_IND</t>
   </si>
   <si>
-    <t>TYPE/AMT.</t>
-  </si>
-  <si>
     <t>PLACEMENT_IND</t>
   </si>
   <si>
@@ -1306,6 +1303,9 @@
   </si>
   <si>
     <t>BLOODSUGAR</t>
+  </si>
+  <si>
+    <t>TYPE_AMT</t>
   </si>
 </sst>
 </file>
@@ -3325,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G685"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3341,22 +3341,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="36" customFormat="1">
       <c r="A1" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>238</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>316</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>424</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="34" customFormat="1">
@@ -3376,7 +3376,7 @@
         <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -3396,7 +3396,7 @@
         <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -3413,7 +3413,7 @@
         <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3430,7 +3430,7 @@
         <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D6">
         <v>32</v>
@@ -3447,7 +3447,7 @@
         <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E7" t="s">
         <v>150</v>
@@ -3461,7 +3461,7 @@
         <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -3492,7 +3492,7 @@
         <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -3512,7 +3512,7 @@
         <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -3532,7 +3532,7 @@
         <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D13">
         <v>32</v>
@@ -3549,7 +3549,7 @@
         <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3566,7 +3566,7 @@
         <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D15">
         <v>32</v>
@@ -3583,7 +3583,7 @@
         <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E16" t="s">
         <v>150</v>
@@ -3597,7 +3597,7 @@
         <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D17">
         <v>20</v>
@@ -3614,7 +3614,7 @@
         <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E18" t="s">
         <v>150</v>
@@ -3628,7 +3628,7 @@
         <v>247</v>
       </c>
       <c r="C19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D19">
         <v>20</v>
@@ -3659,7 +3659,7 @@
         <v>248</v>
       </c>
       <c r="C22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -3679,7 +3679,7 @@
         <v>240</v>
       </c>
       <c r="C23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -3699,7 +3699,7 @@
         <v>249</v>
       </c>
       <c r="C24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -3742,7 +3742,7 @@
         <v>251</v>
       </c>
       <c r="C26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E26" t="s">
         <v>150</v>
@@ -3756,7 +3756,7 @@
         <v>252</v>
       </c>
       <c r="C27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E27" t="s">
         <v>150</v>
@@ -3776,7 +3776,7 @@
         <v>253</v>
       </c>
       <c r="C28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E28" t="s">
         <v>150</v>
@@ -3790,7 +3790,7 @@
         <v>254</v>
       </c>
       <c r="C29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -3807,7 +3807,7 @@
         <v>255</v>
       </c>
       <c r="C30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3824,7 +3824,7 @@
         <v>256</v>
       </c>
       <c r="C31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -3841,7 +3841,7 @@
         <v>257</v>
       </c>
       <c r="C32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D32">
         <v>150</v>
@@ -3858,7 +3858,7 @@
         <v>258</v>
       </c>
       <c r="C33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D33">
         <v>150</v>
@@ -3875,7 +3875,7 @@
         <v>259</v>
       </c>
       <c r="C34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D34">
         <v>150</v>
@@ -3892,7 +3892,7 @@
         <v>244</v>
       </c>
       <c r="C35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E35" t="s">
         <v>150</v>
@@ -3906,7 +3906,7 @@
         <v>245</v>
       </c>
       <c r="C36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D36">
         <v>20</v>
@@ -3937,7 +3937,7 @@
         <v>220</v>
       </c>
       <c r="C39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D39">
         <v>10</v>
@@ -3957,7 +3957,7 @@
         <v>248</v>
       </c>
       <c r="C40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -3977,7 +3977,7 @@
         <v>240</v>
       </c>
       <c r="C41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -3997,7 +3997,7 @@
         <v>249</v>
       </c>
       <c r="C42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E42" t="s">
         <v>150</v>
@@ -4031,7 +4031,7 @@
         <v>251</v>
       </c>
       <c r="C44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E44" t="s">
         <v>150</v>
@@ -4045,7 +4045,7 @@
         <v>252</v>
       </c>
       <c r="C45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E45" t="s">
         <v>150</v>
@@ -4062,7 +4062,7 @@
         <v>253</v>
       </c>
       <c r="C46" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E46" t="s">
         <v>150</v>
@@ -4076,7 +4076,7 @@
         <v>254</v>
       </c>
       <c r="C47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -4093,7 +4093,7 @@
         <v>255</v>
       </c>
       <c r="C48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -4110,7 +4110,7 @@
         <v>256</v>
       </c>
       <c r="C49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -4127,7 +4127,7 @@
         <v>257</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D50">
         <v>150</v>
@@ -4144,7 +4144,7 @@
         <v>258</v>
       </c>
       <c r="C51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D51">
         <v>150</v>
@@ -4161,7 +4161,7 @@
         <v>259</v>
       </c>
       <c r="C52" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D52">
         <v>150</v>
@@ -4178,7 +4178,7 @@
         <v>244</v>
       </c>
       <c r="C53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E53" t="s">
         <v>150</v>
@@ -4192,7 +4192,7 @@
         <v>245</v>
       </c>
       <c r="C54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D54">
         <v>20</v>
@@ -4209,7 +4209,7 @@
         <v>246</v>
       </c>
       <c r="C55" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E55" t="s">
         <v>150</v>
@@ -4223,7 +4223,7 @@
         <v>247</v>
       </c>
       <c r="C56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D56">
         <v>20</v>
@@ -4254,7 +4254,7 @@
         <v>254</v>
       </c>
       <c r="C59" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D59">
         <v>10</v>
@@ -4274,7 +4274,7 @@
         <v>260</v>
       </c>
       <c r="C60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D60">
         <v>10</v>
@@ -4294,7 +4294,7 @@
         <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D61">
         <v>32</v>
@@ -4311,7 +4311,7 @@
         <v>242</v>
       </c>
       <c r="C62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -4328,7 +4328,7 @@
         <v>243</v>
       </c>
       <c r="C63" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D63">
         <v>32</v>
@@ -4345,7 +4345,7 @@
         <v>261</v>
       </c>
       <c r="C64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D64">
         <v>10</v>
@@ -4362,7 +4362,7 @@
         <v>262</v>
       </c>
       <c r="C65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D65">
         <v>10</v>
@@ -4379,7 +4379,7 @@
         <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -4396,7 +4396,7 @@
         <v>255</v>
       </c>
       <c r="C67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -4413,7 +4413,7 @@
         <v>244</v>
       </c>
       <c r="C68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E68" t="s">
         <v>150</v>
@@ -4427,7 +4427,7 @@
         <v>245</v>
       </c>
       <c r="C69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D69">
         <v>20</v>
@@ -4458,7 +4458,7 @@
         <v>220</v>
       </c>
       <c r="C72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D72">
         <v>10</v>
@@ -4478,7 +4478,7 @@
         <v>254</v>
       </c>
       <c r="C73" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D73">
         <v>10</v>
@@ -4498,7 +4498,7 @@
         <v>260</v>
       </c>
       <c r="C74" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D74">
         <v>10</v>
@@ -4518,7 +4518,7 @@
         <v>241</v>
       </c>
       <c r="C75" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D75">
         <v>32</v>
@@ -4535,7 +4535,7 @@
         <v>242</v>
       </c>
       <c r="C76" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -4552,7 +4552,7 @@
         <v>243</v>
       </c>
       <c r="C77" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D77">
         <v>32</v>
@@ -4569,7 +4569,7 @@
         <v>261</v>
       </c>
       <c r="C78" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D78">
         <v>10</v>
@@ -4586,7 +4586,7 @@
         <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D79">
         <v>10</v>
@@ -4603,7 +4603,7 @@
         <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -4620,7 +4620,7 @@
         <v>255</v>
       </c>
       <c r="C81" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -4637,7 +4637,7 @@
         <v>244</v>
       </c>
       <c r="C82" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E82" t="s">
         <v>150</v>
@@ -4651,7 +4651,7 @@
         <v>245</v>
       </c>
       <c r="C83" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D83">
         <v>20</v>
@@ -4668,7 +4668,7 @@
         <v>246</v>
       </c>
       <c r="C84" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E84" t="s">
         <v>150</v>
@@ -4682,7 +4682,7 @@
         <v>247</v>
       </c>
       <c r="C85" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D85">
         <v>20</v>
@@ -4713,7 +4713,7 @@
         <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D88">
         <v>10</v>
@@ -4767,7 +4767,7 @@
         <v>266</v>
       </c>
       <c r="C91" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D91">
         <v>150</v>
@@ -4801,7 +4801,7 @@
         <v>268</v>
       </c>
       <c r="C93" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D93">
         <v>150</v>
@@ -4818,7 +4818,7 @@
         <v>244</v>
       </c>
       <c r="C94" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E94" t="s">
         <v>150</v>
@@ -4832,7 +4832,7 @@
         <v>245</v>
       </c>
       <c r="C95" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D95">
         <v>20</v>
@@ -4863,7 +4863,7 @@
         <v>220</v>
       </c>
       <c r="C98" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D98">
         <v>10</v>
@@ -4883,7 +4883,7 @@
         <v>223</v>
       </c>
       <c r="C99" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D99">
         <v>10</v>
@@ -4937,7 +4937,7 @@
         <v>266</v>
       </c>
       <c r="C102" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D102">
         <v>150</v>
@@ -4971,7 +4971,7 @@
         <v>268</v>
       </c>
       <c r="C104" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D104">
         <v>150</v>
@@ -4988,7 +4988,7 @@
         <v>244</v>
       </c>
       <c r="C105" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E105" t="s">
         <v>150</v>
@@ -5002,7 +5002,7 @@
         <v>245</v>
       </c>
       <c r="C106" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D106">
         <v>20</v>
@@ -5019,7 +5019,7 @@
         <v>246</v>
       </c>
       <c r="C107" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E107" t="s">
         <v>150</v>
@@ -5033,7 +5033,7 @@
         <v>247</v>
       </c>
       <c r="C108" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D108">
         <v>20</v>
@@ -5064,7 +5064,7 @@
         <v>269</v>
       </c>
       <c r="C111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D111">
         <v>10</v>
@@ -5081,10 +5081,10 @@
         <v>193</v>
       </c>
       <c r="B112" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C112" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D112">
         <v>10</v>
@@ -5098,10 +5098,10 @@
         <v>193</v>
       </c>
       <c r="B113" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C113" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D113">
         <v>10</v>
@@ -5118,7 +5118,7 @@
         <v>31</v>
       </c>
       <c r="C114" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -5135,7 +5135,7 @@
         <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D115">
         <v>10</v>
@@ -5152,7 +5152,7 @@
         <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D116">
         <v>10</v>
@@ -5166,10 +5166,10 @@
         <v>193</v>
       </c>
       <c r="B117" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D117">
         <v>10</v>
@@ -5200,10 +5200,10 @@
         <v>193</v>
       </c>
       <c r="B119" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C119" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D119">
         <v>10</v>
@@ -5234,7 +5234,7 @@
         <v>244</v>
       </c>
       <c r="C121" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E121" t="s">
         <v>150</v>
@@ -5248,7 +5248,7 @@
         <v>245</v>
       </c>
       <c r="C122" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E122" t="s">
         <v>150</v>
@@ -5276,7 +5276,7 @@
         <v>220</v>
       </c>
       <c r="C125" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D125">
         <v>10</v>
@@ -5296,7 +5296,7 @@
         <v>269</v>
       </c>
       <c r="C126" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D126">
         <v>10</v>
@@ -5313,10 +5313,10 @@
         <v>205</v>
       </c>
       <c r="B127" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C127" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D127">
         <v>10</v>
@@ -5330,10 +5330,10 @@
         <v>205</v>
       </c>
       <c r="B128" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C128" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D128">
         <v>10</v>
@@ -5350,7 +5350,7 @@
         <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D129">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         <v>270</v>
       </c>
       <c r="C130" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D130">
         <v>10</v>
@@ -5384,7 +5384,7 @@
         <v>271</v>
       </c>
       <c r="C131" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D131">
         <v>10</v>
@@ -5398,10 +5398,10 @@
         <v>205</v>
       </c>
       <c r="B132" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C132" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D132">
         <v>10</v>
@@ -5432,10 +5432,10 @@
         <v>205</v>
       </c>
       <c r="B134" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C134" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D134">
         <v>10</v>
@@ -5466,7 +5466,7 @@
         <v>244</v>
       </c>
       <c r="C136" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E136" t="s">
         <v>150</v>
@@ -5480,7 +5480,7 @@
         <v>245</v>
       </c>
       <c r="C137" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E137" t="s">
         <v>150</v>
@@ -5494,7 +5494,7 @@
         <v>246</v>
       </c>
       <c r="C138" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E138" t="s">
         <v>150</v>
@@ -5508,7 +5508,7 @@
         <v>247</v>
       </c>
       <c r="C139" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E139" t="s">
         <v>150</v>
@@ -5536,7 +5536,7 @@
         <v>224</v>
       </c>
       <c r="C142" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D142">
         <v>10</v>
@@ -5573,7 +5573,7 @@
         <v>275</v>
       </c>
       <c r="C144" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D144">
         <v>30</v>
@@ -5607,7 +5607,7 @@
         <v>277</v>
       </c>
       <c r="C146" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D146">
         <v>30</v>
@@ -5641,7 +5641,7 @@
         <v>279</v>
       </c>
       <c r="C148" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D148">
         <v>30</v>
@@ -5675,7 +5675,7 @@
         <v>281</v>
       </c>
       <c r="C150" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D150">
         <v>30</v>
@@ -5709,7 +5709,7 @@
         <v>283</v>
       </c>
       <c r="C152" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D152">
         <v>30</v>
@@ -5743,7 +5743,7 @@
         <v>285</v>
       </c>
       <c r="C154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D154">
         <v>30</v>
@@ -5777,7 +5777,7 @@
         <v>287</v>
       </c>
       <c r="C156" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D156">
         <v>30</v>
@@ -5811,7 +5811,7 @@
         <v>289</v>
       </c>
       <c r="C158" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D158">
         <v>30</v>
@@ -5842,7 +5842,7 @@
         <v>244</v>
       </c>
       <c r="C160" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E160" t="s">
         <v>150</v>
@@ -5856,7 +5856,7 @@
         <v>245</v>
       </c>
       <c r="C161" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D161">
         <v>20</v>
@@ -5887,7 +5887,7 @@
         <v>220</v>
       </c>
       <c r="C164" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D164">
         <v>10</v>
@@ -5907,7 +5907,7 @@
         <v>224</v>
       </c>
       <c r="C165" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D165">
         <v>10</v>
@@ -5944,7 +5944,7 @@
         <v>275</v>
       </c>
       <c r="C167" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D167">
         <v>30</v>
@@ -5978,7 +5978,7 @@
         <v>277</v>
       </c>
       <c r="C169" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D169">
         <v>30</v>
@@ -6012,7 +6012,7 @@
         <v>279</v>
       </c>
       <c r="C171" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D171">
         <v>30</v>
@@ -6046,7 +6046,7 @@
         <v>281</v>
       </c>
       <c r="C173" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D173">
         <v>30</v>
@@ -6080,7 +6080,7 @@
         <v>283</v>
       </c>
       <c r="C175" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D175">
         <v>30</v>
@@ -6114,7 +6114,7 @@
         <v>285</v>
       </c>
       <c r="C177" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D177">
         <v>30</v>
@@ -6148,7 +6148,7 @@
         <v>287</v>
       </c>
       <c r="C179" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D179">
         <v>30</v>
@@ -6182,7 +6182,7 @@
         <v>289</v>
       </c>
       <c r="C181" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D181">
         <v>30</v>
@@ -6213,7 +6213,7 @@
         <v>244</v>
       </c>
       <c r="C183" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E183" t="s">
         <v>150</v>
@@ -6227,7 +6227,7 @@
         <v>245</v>
       </c>
       <c r="C184" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D184">
         <v>20</v>
@@ -6244,7 +6244,7 @@
         <v>246</v>
       </c>
       <c r="C185" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E185" t="s">
         <v>150</v>
@@ -6258,7 +6258,7 @@
         <v>247</v>
       </c>
       <c r="C186" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D186">
         <v>20</v>
@@ -6289,7 +6289,7 @@
         <v>225</v>
       </c>
       <c r="C189" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D189">
         <v>10</v>
@@ -6326,7 +6326,7 @@
         <v>275</v>
       </c>
       <c r="C191" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D191">
         <v>30</v>
@@ -6360,7 +6360,7 @@
         <v>291</v>
       </c>
       <c r="C193" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D193">
         <v>30</v>
@@ -6394,7 +6394,7 @@
         <v>69</v>
       </c>
       <c r="C195" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D195">
         <v>30</v>
@@ -6428,7 +6428,7 @@
         <v>294</v>
       </c>
       <c r="C197" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D197">
         <v>30</v>
@@ -6462,7 +6462,7 @@
         <v>296</v>
       </c>
       <c r="C199" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D199">
         <v>30</v>
@@ -6496,7 +6496,7 @@
         <v>298</v>
       </c>
       <c r="C201" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D201">
         <v>30</v>
@@ -6530,7 +6530,7 @@
         <v>300</v>
       </c>
       <c r="C203" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D203">
         <v>30</v>
@@ -6564,7 +6564,7 @@
         <v>302</v>
       </c>
       <c r="C205" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D205">
         <v>30</v>
@@ -6595,7 +6595,7 @@
         <v>244</v>
       </c>
       <c r="C207" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E207" t="s">
         <v>150</v>
@@ -6609,7 +6609,7 @@
         <v>245</v>
       </c>
       <c r="C208" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D208">
         <v>20</v>
@@ -6640,7 +6640,7 @@
         <v>220</v>
       </c>
       <c r="C211" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D211">
         <v>10</v>
@@ -6660,7 +6660,7 @@
         <v>225</v>
       </c>
       <c r="C212" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D212">
         <v>10</v>
@@ -6697,7 +6697,7 @@
         <v>275</v>
       </c>
       <c r="C214" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D214">
         <v>30</v>
@@ -6731,7 +6731,7 @@
         <v>291</v>
       </c>
       <c r="C216" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D216">
         <v>30</v>
@@ -6765,7 +6765,7 @@
         <v>69</v>
       </c>
       <c r="C218" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D218">
         <v>30</v>
@@ -6799,7 +6799,7 @@
         <v>294</v>
       </c>
       <c r="C220" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D220">
         <v>30</v>
@@ -6833,7 +6833,7 @@
         <v>296</v>
       </c>
       <c r="C222" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D222">
         <v>30</v>
@@ -6867,7 +6867,7 @@
         <v>298</v>
       </c>
       <c r="C224" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D224">
         <v>30</v>
@@ -6901,7 +6901,7 @@
         <v>300</v>
       </c>
       <c r="C226" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D226">
         <v>30</v>
@@ -6935,7 +6935,7 @@
         <v>302</v>
       </c>
       <c r="C228" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D228">
         <v>10</v>
@@ -6966,7 +6966,7 @@
         <v>244</v>
       </c>
       <c r="C230" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E230" t="s">
         <v>150</v>
@@ -6980,7 +6980,7 @@
         <v>245</v>
       </c>
       <c r="C231" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D231">
         <v>20</v>
@@ -6997,7 +6997,7 @@
         <v>246</v>
       </c>
       <c r="C232" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E232" t="s">
         <v>150</v>
@@ -7011,7 +7011,7 @@
         <v>247</v>
       </c>
       <c r="C233" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D233">
         <v>20</v>
@@ -7042,7 +7042,7 @@
         <v>226</v>
       </c>
       <c r="C236" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D236">
         <v>10</v>
@@ -7198,7 +7198,7 @@
         <v>244</v>
       </c>
       <c r="C245" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E245" t="s">
         <v>150</v>
@@ -7212,7 +7212,7 @@
         <v>245</v>
       </c>
       <c r="C246" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D246">
         <v>20</v>
@@ -7243,7 +7243,7 @@
         <v>220</v>
       </c>
       <c r="C249" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D249">
         <v>10</v>
@@ -7263,7 +7263,7 @@
         <v>226</v>
       </c>
       <c r="C250" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D250">
         <v>10</v>
@@ -7419,7 +7419,7 @@
         <v>244</v>
       </c>
       <c r="C259" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E259" t="s">
         <v>150</v>
@@ -7433,7 +7433,7 @@
         <v>245</v>
       </c>
       <c r="C260" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D260">
         <v>20</v>
@@ -7450,7 +7450,7 @@
         <v>246</v>
       </c>
       <c r="C261" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E261" t="s">
         <v>150</v>
@@ -7464,7 +7464,7 @@
         <v>247</v>
       </c>
       <c r="C262" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D262">
         <v>20</v>
@@ -7495,7 +7495,7 @@
         <v>227</v>
       </c>
       <c r="C265" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D265">
         <v>10</v>
@@ -7634,7 +7634,7 @@
         <v>316</v>
       </c>
       <c r="C273" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D273">
         <v>5</v>
@@ -7662,7 +7662,7 @@
         <v>244</v>
       </c>
       <c r="C275" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E275" t="s">
         <v>150</v>
@@ -7676,7 +7676,7 @@
         <v>245</v>
       </c>
       <c r="C276" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D276">
         <v>20</v>
@@ -7707,7 +7707,7 @@
         <v>220</v>
       </c>
       <c r="C279" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D279">
         <v>10</v>
@@ -7727,7 +7727,7 @@
         <v>227</v>
       </c>
       <c r="C280" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D280">
         <v>10</v>
@@ -7866,7 +7866,7 @@
         <v>316</v>
       </c>
       <c r="C288" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D288">
         <v>5</v>
@@ -7894,7 +7894,7 @@
         <v>244</v>
       </c>
       <c r="C290" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E290" t="s">
         <v>150</v>
@@ -7908,7 +7908,7 @@
         <v>245</v>
       </c>
       <c r="C291" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D291">
         <v>20</v>
@@ -7925,7 +7925,7 @@
         <v>246</v>
       </c>
       <c r="C292" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E292" t="s">
         <v>150</v>
@@ -7939,7 +7939,7 @@
         <v>247</v>
       </c>
       <c r="C293" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D293">
         <v>20</v>
@@ -7975,7 +7975,7 @@
         <v>228</v>
       </c>
       <c r="C297" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D297">
         <v>10</v>
@@ -8015,7 +8015,7 @@
         <v>318</v>
       </c>
       <c r="C299" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D299">
         <v>3</v>
@@ -8035,7 +8035,7 @@
         <v>319</v>
       </c>
       <c r="C300" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D300">
         <v>10</v>
@@ -8052,7 +8052,7 @@
         <v>160</v>
       </c>
       <c r="C301" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D301">
         <v>10</v>
@@ -8069,7 +8069,7 @@
         <v>161</v>
       </c>
       <c r="C302" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D302">
         <v>10</v>
@@ -8086,7 +8086,7 @@
         <v>162</v>
       </c>
       <c r="C303" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D303">
         <v>10</v>
@@ -8103,7 +8103,7 @@
         <v>320</v>
       </c>
       <c r="C304" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D304">
         <v>10</v>
@@ -8120,7 +8120,7 @@
         <v>321</v>
       </c>
       <c r="C305" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D305">
         <v>10</v>
@@ -8137,7 +8137,7 @@
         <v>322</v>
       </c>
       <c r="C306" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D306">
         <v>10</v>
@@ -8154,7 +8154,7 @@
         <v>323</v>
       </c>
       <c r="C307" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D307">
         <v>10</v>
@@ -8171,7 +8171,7 @@
         <v>324</v>
       </c>
       <c r="C308" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D308">
         <v>10</v>
@@ -8188,7 +8188,7 @@
         <v>325</v>
       </c>
       <c r="C309" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D309">
         <v>10</v>
@@ -8236,7 +8236,7 @@
         <v>244</v>
       </c>
       <c r="C312" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E312" t="s">
         <v>150</v>
@@ -8250,7 +8250,7 @@
         <v>245</v>
       </c>
       <c r="C313" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D313">
         <v>20</v>
@@ -8281,7 +8281,7 @@
         <v>220</v>
       </c>
       <c r="C316" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D316">
         <v>10</v>
@@ -8301,7 +8301,7 @@
         <v>228</v>
       </c>
       <c r="C317" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D317">
         <v>10</v>
@@ -8341,7 +8341,7 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D319">
         <v>3</v>
@@ -8361,7 +8361,7 @@
         <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D320">
         <v>10</v>
@@ -8378,7 +8378,7 @@
         <v>160</v>
       </c>
       <c r="C321" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D321">
         <v>10</v>
@@ -8395,7 +8395,7 @@
         <v>161</v>
       </c>
       <c r="C322" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D322">
         <v>10</v>
@@ -8412,7 +8412,7 @@
         <v>162</v>
       </c>
       <c r="C323" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D323">
         <v>10</v>
@@ -8429,7 +8429,7 @@
         <v>320</v>
       </c>
       <c r="C324" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D324">
         <v>10</v>
@@ -8446,7 +8446,7 @@
         <v>321</v>
       </c>
       <c r="C325" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D325">
         <v>10</v>
@@ -8463,7 +8463,7 @@
         <v>322</v>
       </c>
       <c r="C326" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D326">
         <v>10</v>
@@ -8480,7 +8480,7 @@
         <v>323</v>
       </c>
       <c r="C327" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D327">
         <v>10</v>
@@ -8497,7 +8497,7 @@
         <v>324</v>
       </c>
       <c r="C328" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D328">
         <v>10</v>
@@ -8514,7 +8514,7 @@
         <v>325</v>
       </c>
       <c r="C329" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D329">
         <v>10</v>
@@ -8562,7 +8562,7 @@
         <v>244</v>
       </c>
       <c r="C332" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E332" t="s">
         <v>150</v>
@@ -8576,7 +8576,7 @@
         <v>245</v>
       </c>
       <c r="C333" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D333">
         <v>20</v>
@@ -8593,7 +8593,7 @@
         <v>246</v>
       </c>
       <c r="C334" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E334" t="s">
         <v>150</v>
@@ -8607,7 +8607,7 @@
         <v>247</v>
       </c>
       <c r="C335" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D335">
         <v>20</v>
@@ -8638,7 +8638,7 @@
         <v>229</v>
       </c>
       <c r="C338" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D338">
         <v>10</v>
@@ -8675,7 +8675,7 @@
         <v>327</v>
       </c>
       <c r="C340" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D340">
         <v>10</v>
@@ -8774,10 +8774,10 @@
         <v>198</v>
       </c>
       <c r="B346" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="C346" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D346">
         <v>10</v>
@@ -8791,7 +8791,7 @@
         <v>198</v>
       </c>
       <c r="B347" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C347" t="s">
         <v>154</v>
@@ -8808,7 +8808,7 @@
         <v>198</v>
       </c>
       <c r="B348" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C348" t="s">
         <v>154</v>
@@ -8825,10 +8825,10 @@
         <v>198</v>
       </c>
       <c r="B349" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C349" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D349">
         <v>10</v>
@@ -8842,7 +8842,7 @@
         <v>198</v>
       </c>
       <c r="B350" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C350" t="s">
         <v>154</v>
@@ -8859,7 +8859,7 @@
         <v>198</v>
       </c>
       <c r="B351" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C351" t="s">
         <v>154</v>
@@ -8876,10 +8876,10 @@
         <v>198</v>
       </c>
       <c r="B352" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C352" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D352">
         <v>10</v>
@@ -8893,7 +8893,7 @@
         <v>198</v>
       </c>
       <c r="B353" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C353" t="s">
         <v>154</v>
@@ -8910,10 +8910,10 @@
         <v>198</v>
       </c>
       <c r="B354" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C354" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D354">
         <v>10</v>
@@ -8927,7 +8927,7 @@
         <v>198</v>
       </c>
       <c r="B355" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C355" t="s">
         <v>154</v>
@@ -8944,7 +8944,7 @@
         <v>198</v>
       </c>
       <c r="B356" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C356" t="s">
         <v>154</v>
@@ -8961,7 +8961,7 @@
         <v>198</v>
       </c>
       <c r="B357" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C357" t="s">
         <v>154</v>
@@ -8978,7 +8978,7 @@
         <v>198</v>
       </c>
       <c r="B358" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C358" t="s">
         <v>154</v>
@@ -9012,7 +9012,7 @@
         <v>244</v>
       </c>
       <c r="C360" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E360" t="s">
         <v>150</v>
@@ -9026,7 +9026,7 @@
         <v>245</v>
       </c>
       <c r="C361" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D361">
         <v>20</v>
@@ -9057,7 +9057,7 @@
         <v>220</v>
       </c>
       <c r="C364" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D364">
         <v>10</v>
@@ -9077,7 +9077,7 @@
         <v>229</v>
       </c>
       <c r="C365" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D365">
         <v>10</v>
@@ -9114,7 +9114,7 @@
         <v>327</v>
       </c>
       <c r="C367" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D367">
         <v>10</v>
@@ -9213,10 +9213,10 @@
         <v>211</v>
       </c>
       <c r="B373" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="C373" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D373">
         <v>10</v>
@@ -9230,7 +9230,7 @@
         <v>211</v>
       </c>
       <c r="B374" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C374" t="s">
         <v>154</v>
@@ -9247,7 +9247,7 @@
         <v>211</v>
       </c>
       <c r="B375" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C375" t="s">
         <v>154</v>
@@ -9264,10 +9264,10 @@
         <v>211</v>
       </c>
       <c r="B376" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C376" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D376">
         <v>10</v>
@@ -9281,7 +9281,7 @@
         <v>211</v>
       </c>
       <c r="B377" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C377" t="s">
         <v>154</v>
@@ -9298,7 +9298,7 @@
         <v>211</v>
       </c>
       <c r="B378" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C378" t="s">
         <v>154</v>
@@ -9315,10 +9315,10 @@
         <v>211</v>
       </c>
       <c r="B379" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C379" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D379">
         <v>10</v>
@@ -9332,7 +9332,7 @@
         <v>211</v>
       </c>
       <c r="B380" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C380" t="s">
         <v>154</v>
@@ -9349,10 +9349,10 @@
         <v>211</v>
       </c>
       <c r="B381" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C381" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D381">
         <v>10</v>
@@ -9366,7 +9366,7 @@
         <v>211</v>
       </c>
       <c r="B382" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C382" t="s">
         <v>154</v>
@@ -9383,7 +9383,7 @@
         <v>211</v>
       </c>
       <c r="B383" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C383" t="s">
         <v>154</v>
@@ -9400,7 +9400,7 @@
         <v>211</v>
       </c>
       <c r="B384" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C384" t="s">
         <v>154</v>
@@ -9417,7 +9417,7 @@
         <v>211</v>
       </c>
       <c r="B385" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C385" t="s">
         <v>154</v>
@@ -9451,7 +9451,7 @@
         <v>244</v>
       </c>
       <c r="C387" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E387" t="s">
         <v>150</v>
@@ -9465,7 +9465,7 @@
         <v>245</v>
       </c>
       <c r="C388" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D388">
         <v>20</v>
@@ -9482,7 +9482,7 @@
         <v>246</v>
       </c>
       <c r="C389" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E389" t="s">
         <v>150</v>
@@ -9496,7 +9496,7 @@
         <v>247</v>
       </c>
       <c r="C390" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D390">
         <v>20</v>
@@ -9527,7 +9527,7 @@
         <v>230</v>
       </c>
       <c r="C393" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D393">
         <v>10</v>
@@ -9544,7 +9544,7 @@
         <v>199</v>
       </c>
       <c r="B394" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C394" t="s">
         <v>154</v>
@@ -9561,7 +9561,7 @@
         <v>199</v>
       </c>
       <c r="B395" s="40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C395" t="s">
         <v>154</v>
@@ -9578,7 +9578,7 @@
         <v>199</v>
       </c>
       <c r="B396" s="40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C396" t="s">
         <v>154</v>
@@ -9595,7 +9595,7 @@
         <v>199</v>
       </c>
       <c r="B397" s="40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C397" t="s">
         <v>154</v>
@@ -9612,7 +9612,7 @@
         <v>199</v>
       </c>
       <c r="B398" s="40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C398" t="s">
         <v>154</v>
@@ -9646,7 +9646,7 @@
         <v>244</v>
       </c>
       <c r="C400" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E400" t="s">
         <v>150</v>
@@ -9660,7 +9660,7 @@
         <v>245</v>
       </c>
       <c r="C401" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D401">
         <v>20</v>
@@ -9691,7 +9691,7 @@
         <v>220</v>
       </c>
       <c r="C404" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D404">
         <v>10</v>
@@ -9711,7 +9711,7 @@
         <v>230</v>
       </c>
       <c r="C405" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D405">
         <v>10</v>
@@ -9728,7 +9728,7 @@
         <v>212</v>
       </c>
       <c r="B406" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C406" t="s">
         <v>154</v>
@@ -9745,7 +9745,7 @@
         <v>212</v>
       </c>
       <c r="B407" s="40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C407" t="s">
         <v>154</v>
@@ -9762,7 +9762,7 @@
         <v>212</v>
       </c>
       <c r="B408" s="40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C408" t="s">
         <v>154</v>
@@ -9779,7 +9779,7 @@
         <v>212</v>
       </c>
       <c r="B409" s="40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C409" t="s">
         <v>154</v>
@@ -9796,7 +9796,7 @@
         <v>212</v>
       </c>
       <c r="B410" s="40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C410" t="s">
         <v>154</v>
@@ -9830,7 +9830,7 @@
         <v>244</v>
       </c>
       <c r="C412" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E412" t="s">
         <v>150</v>
@@ -9844,7 +9844,7 @@
         <v>245</v>
       </c>
       <c r="C413" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D413">
         <v>20</v>
@@ -9861,7 +9861,7 @@
         <v>246</v>
       </c>
       <c r="C414" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E414" t="s">
         <v>150</v>
@@ -9875,7 +9875,7 @@
         <v>247</v>
       </c>
       <c r="C415" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D415">
         <v>20</v>
@@ -9900,13 +9900,13 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C418" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D418">
         <v>10</v>
@@ -9920,10 +9920,10 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B419" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C419" t="s">
         <v>154</v>
@@ -9937,10 +9937,10 @@
     </row>
     <row r="420" spans="1:6">
       <c r="A420" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B420" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C420" t="s">
         <v>154</v>
@@ -9954,10 +9954,10 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B421" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C421" t="s">
         <v>154</v>
@@ -9971,10 +9971,10 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B422" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C422" t="s">
         <v>154</v>
@@ -9988,10 +9988,10 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B423" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C423" t="s">
         <v>154</v>
@@ -10005,10 +10005,10 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B424" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C424" t="s">
         <v>154</v>
@@ -10022,10 +10022,10 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B425" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C425" t="s">
         <v>154</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B426" t="s">
         <v>301</v>
@@ -10056,13 +10056,13 @@
     </row>
     <row r="427" spans="1:6">
       <c r="A427" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B427" t="s">
         <v>302</v>
       </c>
       <c r="C427" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D427">
         <v>10</v>
@@ -10073,7 +10073,7 @@
     </row>
     <row r="428" spans="1:6">
       <c r="A428" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B428" t="s">
         <v>273</v>
@@ -10087,13 +10087,13 @@
     </row>
     <row r="429" spans="1:6">
       <c r="A429" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B429" t="s">
         <v>244</v>
       </c>
       <c r="C429" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E429" t="s">
         <v>150</v>
@@ -10101,13 +10101,13 @@
     </row>
     <row r="430" spans="1:6">
       <c r="A430" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B430" t="s">
         <v>245</v>
       </c>
       <c r="C430" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D430">
         <v>20</v>
@@ -10132,13 +10132,13 @@
     </row>
     <row r="433" spans="1:6">
       <c r="A433" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B433" t="s">
         <v>220</v>
       </c>
       <c r="C433" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D433">
         <v>10</v>
@@ -10152,13 +10152,13 @@
     </row>
     <row r="434" spans="1:6">
       <c r="A434" t="s">
+        <v>417</v>
+      </c>
+      <c r="B434" t="s">
+        <v>350</v>
+      </c>
+      <c r="C434" t="s">
         <v>418</v>
-      </c>
-      <c r="B434" t="s">
-        <v>351</v>
-      </c>
-      <c r="C434" t="s">
-        <v>419</v>
       </c>
       <c r="D434">
         <v>10</v>
@@ -10172,10 +10172,10 @@
     </row>
     <row r="435" spans="1:6">
       <c r="A435" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B435" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C435" t="s">
         <v>154</v>
@@ -10189,10 +10189,10 @@
     </row>
     <row r="436" spans="1:6">
       <c r="A436" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B436" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C436" t="s">
         <v>154</v>
@@ -10206,10 +10206,10 @@
     </row>
     <row r="437" spans="1:6">
       <c r="A437" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B437" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C437" t="s">
         <v>154</v>
@@ -10223,10 +10223,10 @@
     </row>
     <row r="438" spans="1:6">
       <c r="A438" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B438" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C438" t="s">
         <v>154</v>
@@ -10240,10 +10240,10 @@
     </row>
     <row r="439" spans="1:6">
       <c r="A439" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B439" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C439" t="s">
         <v>154</v>
@@ -10257,10 +10257,10 @@
     </row>
     <row r="440" spans="1:6">
       <c r="A440" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B440" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C440" t="s">
         <v>154</v>
@@ -10274,10 +10274,10 @@
     </row>
     <row r="441" spans="1:6">
       <c r="A441" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B441" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C441" t="s">
         <v>154</v>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="442" spans="1:6">
       <c r="A442" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B442" t="s">
         <v>301</v>
@@ -10308,13 +10308,13 @@
     </row>
     <row r="443" spans="1:6">
       <c r="A443" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B443" t="s">
         <v>302</v>
       </c>
       <c r="C443" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D443">
         <v>10</v>
@@ -10325,7 +10325,7 @@
     </row>
     <row r="444" spans="1:6">
       <c r="A444" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B444" t="s">
         <v>273</v>
@@ -10339,13 +10339,13 @@
     </row>
     <row r="445" spans="1:6">
       <c r="A445" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B445" t="s">
         <v>244</v>
       </c>
       <c r="C445" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E445" t="s">
         <v>150</v>
@@ -10353,13 +10353,13 @@
     </row>
     <row r="446" spans="1:6">
       <c r="A446" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B446" t="s">
         <v>245</v>
       </c>
       <c r="C446" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D446">
         <v>20</v>
@@ -10370,13 +10370,13 @@
     </row>
     <row r="447" spans="1:6">
       <c r="A447" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B447" t="s">
         <v>246</v>
       </c>
       <c r="C447" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E447" t="s">
         <v>150</v>
@@ -10384,13 +10384,13 @@
     </row>
     <row r="448" spans="1:6">
       <c r="A448" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B448" t="s">
         <v>247</v>
       </c>
       <c r="C448" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D448">
         <v>20</v>
@@ -10421,7 +10421,7 @@
         <v>231</v>
       </c>
       <c r="C451" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D451">
         <v>10</v>
@@ -10438,10 +10438,10 @@
         <v>50</v>
       </c>
       <c r="B452" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C452" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D452">
         <v>2</v>
@@ -10458,10 +10458,10 @@
         <v>50</v>
       </c>
       <c r="B453" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C453" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D453">
         <v>10</v>
@@ -10475,10 +10475,10 @@
         <v>50</v>
       </c>
       <c r="B454" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C454" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D454">
         <v>2</v>
@@ -10492,10 +10492,10 @@
         <v>50</v>
       </c>
       <c r="B455" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C455" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D455">
         <v>10</v>
@@ -10509,7 +10509,7 @@
         <v>50</v>
       </c>
       <c r="B456" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C456" t="s">
         <v>154</v>
@@ -10526,10 +10526,10 @@
         <v>50</v>
       </c>
       <c r="B457" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C457" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D457">
         <v>10</v>
@@ -10543,10 +10543,10 @@
         <v>50</v>
       </c>
       <c r="B458" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C458" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D458">
         <v>10</v>
@@ -10577,7 +10577,7 @@
         <v>244</v>
       </c>
       <c r="C460" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E460" t="s">
         <v>150</v>
@@ -10591,7 +10591,7 @@
         <v>245</v>
       </c>
       <c r="C461" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D461">
         <v>20</v>
@@ -10622,7 +10622,7 @@
         <v>220</v>
       </c>
       <c r="C464" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D464">
         <v>10</v>
@@ -10642,7 +10642,7 @@
         <v>231</v>
       </c>
       <c r="C465" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D465">
         <v>10</v>
@@ -10659,10 +10659,10 @@
         <v>213</v>
       </c>
       <c r="B466" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C466" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D466">
         <v>2</v>
@@ -10676,10 +10676,10 @@
         <v>213</v>
       </c>
       <c r="B467" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C467" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D467">
         <v>10</v>
@@ -10693,10 +10693,10 @@
         <v>213</v>
       </c>
       <c r="B468" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C468" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D468">
         <v>2</v>
@@ -10710,10 +10710,10 @@
         <v>213</v>
       </c>
       <c r="B469" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C469" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D469">
         <v>10</v>
@@ -10727,7 +10727,7 @@
         <v>213</v>
       </c>
       <c r="B470" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C470" t="s">
         <v>154</v>
@@ -10744,10 +10744,10 @@
         <v>213</v>
       </c>
       <c r="B471" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C471" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D471">
         <v>10</v>
@@ -10761,10 +10761,10 @@
         <v>213</v>
       </c>
       <c r="B472" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C472" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D472">
         <v>10</v>
@@ -10795,7 +10795,7 @@
         <v>244</v>
       </c>
       <c r="C474" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E474" t="s">
         <v>150</v>
@@ -10809,7 +10809,7 @@
         <v>245</v>
       </c>
       <c r="C475" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D475">
         <v>20</v>
@@ -10826,7 +10826,7 @@
         <v>246</v>
       </c>
       <c r="C476" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E476" t="s">
         <v>150</v>
@@ -10840,7 +10840,7 @@
         <v>247</v>
       </c>
       <c r="C477" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D477">
         <v>20</v>
@@ -10871,7 +10871,7 @@
         <v>232</v>
       </c>
       <c r="C480" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D480">
         <v>10</v>
@@ -10888,7 +10888,7 @@
         <v>54</v>
       </c>
       <c r="B481" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C481" t="s">
         <v>154</v>
@@ -10905,7 +10905,7 @@
         <v>54</v>
       </c>
       <c r="B482" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C482" t="s">
         <v>154</v>
@@ -10922,7 +10922,7 @@
         <v>54</v>
       </c>
       <c r="B483" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C483" t="s">
         <v>154</v>
@@ -10939,7 +10939,7 @@
         <v>54</v>
       </c>
       <c r="B484" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C484" t="s">
         <v>154</v>
@@ -10956,7 +10956,7 @@
         <v>54</v>
       </c>
       <c r="B485" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C485" t="s">
         <v>154</v>
@@ -10973,7 +10973,7 @@
         <v>54</v>
       </c>
       <c r="B486" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C486" t="s">
         <v>154</v>
@@ -10990,10 +10990,10 @@
         <v>54</v>
       </c>
       <c r="B487" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C487" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D487">
         <v>10</v>
@@ -11007,7 +11007,7 @@
         <v>54</v>
       </c>
       <c r="B488" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C488" t="s">
         <v>154</v>
@@ -11041,7 +11041,7 @@
         <v>244</v>
       </c>
       <c r="C490" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E490" t="s">
         <v>150</v>
@@ -11055,7 +11055,7 @@
         <v>245</v>
       </c>
       <c r="C491" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D491">
         <v>20</v>
@@ -11086,7 +11086,7 @@
         <v>220</v>
       </c>
       <c r="C494" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D494">
         <v>10</v>
@@ -11106,7 +11106,7 @@
         <v>232</v>
       </c>
       <c r="C495" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D495">
         <v>10</v>
@@ -11123,7 +11123,7 @@
         <v>214</v>
       </c>
       <c r="B496" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C496" t="s">
         <v>154</v>
@@ -11140,7 +11140,7 @@
         <v>214</v>
       </c>
       <c r="B497" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C497" t="s">
         <v>154</v>
@@ -11157,7 +11157,7 @@
         <v>214</v>
       </c>
       <c r="B498" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C498" t="s">
         <v>154</v>
@@ -11174,7 +11174,7 @@
         <v>214</v>
       </c>
       <c r="B499" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C499" t="s">
         <v>154</v>
@@ -11191,7 +11191,7 @@
         <v>214</v>
       </c>
       <c r="B500" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C500" t="s">
         <v>154</v>
@@ -11208,7 +11208,7 @@
         <v>214</v>
       </c>
       <c r="B501" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C501" t="s">
         <v>154</v>
@@ -11225,10 +11225,10 @@
         <v>214</v>
       </c>
       <c r="B502" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C502" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D502">
         <v>10</v>
@@ -11242,7 +11242,7 @@
         <v>214</v>
       </c>
       <c r="B503" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C503" t="s">
         <v>154</v>
@@ -11276,7 +11276,7 @@
         <v>244</v>
       </c>
       <c r="C505" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E505" t="s">
         <v>150</v>
@@ -11290,7 +11290,7 @@
         <v>245</v>
       </c>
       <c r="C506" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D506">
         <v>20</v>
@@ -11307,7 +11307,7 @@
         <v>246</v>
       </c>
       <c r="C507" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E507" t="s">
         <v>150</v>
@@ -11321,7 +11321,7 @@
         <v>247</v>
       </c>
       <c r="C508" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D508">
         <v>20</v>
@@ -11352,7 +11352,7 @@
         <v>233</v>
       </c>
       <c r="C511" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D511">
         <v>10</v>
@@ -11369,7 +11369,7 @@
         <v>55</v>
       </c>
       <c r="B512" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C512" t="s">
         <v>154</v>
@@ -11386,7 +11386,7 @@
         <v>55</v>
       </c>
       <c r="B513" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C513" t="s">
         <v>154</v>
@@ -11403,7 +11403,7 @@
         <v>55</v>
       </c>
       <c r="B514" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C514" t="s">
         <v>154</v>
@@ -11420,7 +11420,7 @@
         <v>55</v>
       </c>
       <c r="B515" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C515" t="s">
         <v>154</v>
@@ -11454,7 +11454,7 @@
         <v>244</v>
       </c>
       <c r="C517" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E517" t="s">
         <v>150</v>
@@ -11468,7 +11468,7 @@
         <v>245</v>
       </c>
       <c r="C518" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D518">
         <v>20</v>
@@ -11499,7 +11499,7 @@
         <v>220</v>
       </c>
       <c r="C521" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D521">
         <v>10</v>
@@ -11519,7 +11519,7 @@
         <v>233</v>
       </c>
       <c r="C522" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D522">
         <v>10</v>
@@ -11536,7 +11536,7 @@
         <v>215</v>
       </c>
       <c r="B523" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C523" t="s">
         <v>154</v>
@@ -11553,7 +11553,7 @@
         <v>215</v>
       </c>
       <c r="B524" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C524" t="s">
         <v>154</v>
@@ -11570,7 +11570,7 @@
         <v>215</v>
       </c>
       <c r="B525" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C525" t="s">
         <v>154</v>
@@ -11587,7 +11587,7 @@
         <v>215</v>
       </c>
       <c r="B526" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C526" t="s">
         <v>154</v>
@@ -11621,7 +11621,7 @@
         <v>244</v>
       </c>
       <c r="C528" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E528" t="s">
         <v>150</v>
@@ -11635,7 +11635,7 @@
         <v>245</v>
       </c>
       <c r="C529" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D529">
         <v>20</v>
@@ -11652,7 +11652,7 @@
         <v>246</v>
       </c>
       <c r="C530" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E530" t="s">
         <v>150</v>
@@ -11666,7 +11666,7 @@
         <v>247</v>
       </c>
       <c r="C531" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D531">
         <v>20</v>
@@ -11697,7 +11697,7 @@
         <v>234</v>
       </c>
       <c r="C534" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D534">
         <v>10</v>
@@ -11714,7 +11714,7 @@
         <v>170</v>
       </c>
       <c r="B535" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C535" t="s">
         <v>158</v>
@@ -11728,7 +11728,7 @@
         <v>170</v>
       </c>
       <c r="B536" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C536" t="s">
         <v>158</v>
@@ -11742,7 +11742,7 @@
         <v>170</v>
       </c>
       <c r="B537" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C537" t="s">
         <v>158</v>
@@ -11759,7 +11759,7 @@
         <v>244</v>
       </c>
       <c r="C538" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E538" t="s">
         <v>150</v>
@@ -11773,7 +11773,7 @@
         <v>245</v>
       </c>
       <c r="C539" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D539">
         <v>20</v>
@@ -11804,7 +11804,7 @@
         <v>220</v>
       </c>
       <c r="C542" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D542">
         <v>10</v>
@@ -11824,7 +11824,7 @@
         <v>234</v>
       </c>
       <c r="C543" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D543">
         <v>10</v>
@@ -11841,7 +11841,7 @@
         <v>216</v>
       </c>
       <c r="B544" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C544" t="s">
         <v>158</v>
@@ -11855,7 +11855,7 @@
         <v>216</v>
       </c>
       <c r="B545" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C545" t="s">
         <v>158</v>
@@ -11869,7 +11869,7 @@
         <v>216</v>
       </c>
       <c r="B546" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C546" t="s">
         <v>158</v>
@@ -11886,7 +11886,7 @@
         <v>244</v>
       </c>
       <c r="C547" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E547" t="s">
         <v>150</v>
@@ -11900,7 +11900,7 @@
         <v>245</v>
       </c>
       <c r="C548" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D548">
         <v>20</v>
@@ -11917,7 +11917,7 @@
         <v>246</v>
       </c>
       <c r="C549" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E549" t="s">
         <v>150</v>
@@ -11931,7 +11931,7 @@
         <v>247</v>
       </c>
       <c r="C550" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D550">
         <v>20</v>
@@ -11962,7 +11962,7 @@
         <v>235</v>
       </c>
       <c r="C553" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D553">
         <v>10</v>
@@ -11979,7 +11979,7 @@
         <v>58</v>
       </c>
       <c r="B554" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C554" t="s">
         <v>154</v>
@@ -11996,7 +11996,7 @@
         <v>58</v>
       </c>
       <c r="B555" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C555" t="s">
         <v>154</v>
@@ -12033,7 +12033,7 @@
         <v>302</v>
       </c>
       <c r="C557" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D557">
         <v>10</v>
@@ -12047,7 +12047,7 @@
         <v>58</v>
       </c>
       <c r="B558" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C558" t="s">
         <v>154</v>
@@ -12064,7 +12064,7 @@
         <v>58</v>
       </c>
       <c r="B559" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C559" t="s">
         <v>154</v>
@@ -12081,7 +12081,7 @@
         <v>58</v>
       </c>
       <c r="B560" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C560" t="s">
         <v>154</v>
@@ -12115,7 +12115,7 @@
         <v>58</v>
       </c>
       <c r="B562" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C562" t="s">
         <v>154</v>
@@ -12132,7 +12132,7 @@
         <v>58</v>
       </c>
       <c r="B563" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C563" t="s">
         <v>154</v>
@@ -12149,7 +12149,7 @@
         <v>58</v>
       </c>
       <c r="B564" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C564" t="s">
         <v>154</v>
@@ -12183,7 +12183,7 @@
         <v>244</v>
       </c>
       <c r="C566" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E566" t="s">
         <v>150</v>
@@ -12197,7 +12197,7 @@
         <v>245</v>
       </c>
       <c r="C567" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D567">
         <v>20</v>
@@ -12228,7 +12228,7 @@
         <v>220</v>
       </c>
       <c r="C570" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D570">
         <v>10</v>
@@ -12248,7 +12248,7 @@
         <v>235</v>
       </c>
       <c r="C571" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D571">
         <v>10</v>
@@ -12265,7 +12265,7 @@
         <v>217</v>
       </c>
       <c r="B572" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C572" t="s">
         <v>154</v>
@@ -12282,7 +12282,7 @@
         <v>217</v>
       </c>
       <c r="B573" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C573" t="s">
         <v>154</v>
@@ -12319,7 +12319,7 @@
         <v>302</v>
       </c>
       <c r="C575" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D575">
         <v>10</v>
@@ -12333,7 +12333,7 @@
         <v>217</v>
       </c>
       <c r="B576" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C576" t="s">
         <v>154</v>
@@ -12350,7 +12350,7 @@
         <v>217</v>
       </c>
       <c r="B577" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C577" t="s">
         <v>154</v>
@@ -12367,7 +12367,7 @@
         <v>217</v>
       </c>
       <c r="B578" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C578" t="s">
         <v>154</v>
@@ -12401,7 +12401,7 @@
         <v>217</v>
       </c>
       <c r="B580" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C580" t="s">
         <v>154</v>
@@ -12418,7 +12418,7 @@
         <v>217</v>
       </c>
       <c r="B581" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C581" t="s">
         <v>154</v>
@@ -12435,7 +12435,7 @@
         <v>217</v>
       </c>
       <c r="B582" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C582" t="s">
         <v>154</v>
@@ -12469,7 +12469,7 @@
         <v>244</v>
       </c>
       <c r="C584" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E584" t="s">
         <v>150</v>
@@ -12483,7 +12483,7 @@
         <v>245</v>
       </c>
       <c r="C585" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D585">
         <v>20</v>
@@ -12500,7 +12500,7 @@
         <v>246</v>
       </c>
       <c r="C586" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E586" t="s">
         <v>150</v>
@@ -12514,7 +12514,7 @@
         <v>247</v>
       </c>
       <c r="C587" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D587">
         <v>20</v>
@@ -12545,7 +12545,7 @@
         <v>236</v>
       </c>
       <c r="C590" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D590">
         <v>10</v>
@@ -12562,10 +12562,10 @@
         <v>200</v>
       </c>
       <c r="B591" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C591" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D591">
         <v>50</v>
@@ -12579,10 +12579,10 @@
         <v>200</v>
       </c>
       <c r="B592" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C592" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D592">
         <v>50</v>
@@ -12596,10 +12596,10 @@
         <v>200</v>
       </c>
       <c r="B593" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C593" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D593">
         <v>50</v>
@@ -12613,7 +12613,7 @@
         <v>200</v>
       </c>
       <c r="B594" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C594" t="s">
         <v>154</v>
@@ -12630,7 +12630,7 @@
         <v>200</v>
       </c>
       <c r="B595" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C595" t="s">
         <v>154</v>
@@ -12647,7 +12647,7 @@
         <v>200</v>
       </c>
       <c r="B596" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C596" t="s">
         <v>154</v>
@@ -12664,7 +12664,7 @@
         <v>200</v>
       </c>
       <c r="B597" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C597" t="s">
         <v>154</v>
@@ -12681,7 +12681,7 @@
         <v>200</v>
       </c>
       <c r="B598" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C598" t="s">
         <v>154</v>
@@ -12698,7 +12698,7 @@
         <v>200</v>
       </c>
       <c r="B599" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C599" t="s">
         <v>154</v>
@@ -12715,7 +12715,7 @@
         <v>200</v>
       </c>
       <c r="B600" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C600" t="s">
         <v>154</v>
@@ -12752,7 +12752,7 @@
         <v>302</v>
       </c>
       <c r="C602" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D602">
         <v>50</v>
@@ -12766,10 +12766,10 @@
         <v>200</v>
       </c>
       <c r="B603" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C603" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D603">
         <v>50</v>
@@ -12783,10 +12783,10 @@
         <v>200</v>
       </c>
       <c r="B604" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C604" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D604">
         <v>50</v>
@@ -12800,10 +12800,10 @@
         <v>200</v>
       </c>
       <c r="B605" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C605" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D605">
         <v>50</v>
@@ -12817,10 +12817,10 @@
         <v>200</v>
       </c>
       <c r="B606" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C606" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D606">
         <v>50</v>
@@ -12834,10 +12834,10 @@
         <v>200</v>
       </c>
       <c r="B607" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C607" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D607">
         <v>50</v>
@@ -12851,10 +12851,10 @@
         <v>200</v>
       </c>
       <c r="B608" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C608" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E608" t="s">
         <v>151</v>
@@ -12865,10 +12865,10 @@
         <v>200</v>
       </c>
       <c r="B609" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C609" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D609">
         <v>50</v>
@@ -12882,10 +12882,10 @@
         <v>200</v>
       </c>
       <c r="B610" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C610" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D610">
         <v>50</v>
@@ -12899,10 +12899,10 @@
         <v>200</v>
       </c>
       <c r="B611" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C611" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D611">
         <v>50</v>
@@ -12919,7 +12919,7 @@
         <v>244</v>
       </c>
       <c r="C612" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E612" t="s">
         <v>150</v>
@@ -12933,7 +12933,7 @@
         <v>245</v>
       </c>
       <c r="C613" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D613">
         <v>20</v>
@@ -12964,7 +12964,7 @@
         <v>220</v>
       </c>
       <c r="C616" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D616">
         <v>10</v>
@@ -12984,7 +12984,7 @@
         <v>236</v>
       </c>
       <c r="C617" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D617">
         <v>10</v>
@@ -13001,10 +13001,10 @@
         <v>218</v>
       </c>
       <c r="B618" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C618" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D618">
         <v>50</v>
@@ -13018,10 +13018,10 @@
         <v>218</v>
       </c>
       <c r="B619" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C619" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D619">
         <v>50</v>
@@ -13035,10 +13035,10 @@
         <v>218</v>
       </c>
       <c r="B620" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C620" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D620">
         <v>50</v>
@@ -13052,7 +13052,7 @@
         <v>218</v>
       </c>
       <c r="B621" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C621" t="s">
         <v>154</v>
@@ -13069,7 +13069,7 @@
         <v>218</v>
       </c>
       <c r="B622" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C622" t="s">
         <v>154</v>
@@ -13086,7 +13086,7 @@
         <v>218</v>
       </c>
       <c r="B623" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C623" t="s">
         <v>154</v>
@@ -13103,7 +13103,7 @@
         <v>218</v>
       </c>
       <c r="B624" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C624" t="s">
         <v>154</v>
@@ -13120,7 +13120,7 @@
         <v>218</v>
       </c>
       <c r="B625" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C625" t="s">
         <v>154</v>
@@ -13137,7 +13137,7 @@
         <v>218</v>
       </c>
       <c r="B626" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C626" t="s">
         <v>154</v>
@@ -13154,7 +13154,7 @@
         <v>218</v>
       </c>
       <c r="B627" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C627" t="s">
         <v>154</v>
@@ -13191,7 +13191,7 @@
         <v>302</v>
       </c>
       <c r="C629" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D629">
         <v>50</v>
@@ -13205,10 +13205,10 @@
         <v>218</v>
       </c>
       <c r="B630" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C630" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D630">
         <v>50</v>
@@ -13222,10 +13222,10 @@
         <v>218</v>
       </c>
       <c r="B631" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C631" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D631">
         <v>50</v>
@@ -13239,10 +13239,10 @@
         <v>218</v>
       </c>
       <c r="B632" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C632" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D632">
         <v>50</v>
@@ -13256,10 +13256,10 @@
         <v>218</v>
       </c>
       <c r="B633" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C633" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D633">
         <v>50</v>
@@ -13273,10 +13273,10 @@
         <v>218</v>
       </c>
       <c r="B634" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C634" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D634">
         <v>50</v>
@@ -13290,10 +13290,10 @@
         <v>218</v>
       </c>
       <c r="B635" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C635" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E635" t="s">
         <v>151</v>
@@ -13304,10 +13304,10 @@
         <v>218</v>
       </c>
       <c r="B636" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C636" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D636">
         <v>50</v>
@@ -13321,10 +13321,10 @@
         <v>218</v>
       </c>
       <c r="B637" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C637" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D637">
         <v>50</v>
@@ -13338,10 +13338,10 @@
         <v>218</v>
       </c>
       <c r="B638" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C638" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D638">
         <v>50</v>
@@ -13358,7 +13358,7 @@
         <v>244</v>
       </c>
       <c r="C639" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E639" t="s">
         <v>150</v>
@@ -13372,7 +13372,7 @@
         <v>245</v>
       </c>
       <c r="C640" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D640">
         <v>20</v>
@@ -13389,7 +13389,7 @@
         <v>246</v>
       </c>
       <c r="C641" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E641" t="s">
         <v>150</v>
@@ -13403,7 +13403,7 @@
         <v>247</v>
       </c>
       <c r="C642" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D642">
         <v>20</v>
@@ -13434,7 +13434,7 @@
         <v>237</v>
       </c>
       <c r="C645" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D645">
         <v>10</v>
@@ -13451,7 +13451,7 @@
         <v>49</v>
       </c>
       <c r="B646" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C646" t="s">
         <v>154</v>
@@ -13468,7 +13468,7 @@
         <v>49</v>
       </c>
       <c r="B647" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C647" t="s">
         <v>154</v>
@@ -13485,7 +13485,7 @@
         <v>49</v>
       </c>
       <c r="B648" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C648" t="s">
         <v>154</v>
@@ -13502,7 +13502,7 @@
         <v>49</v>
       </c>
       <c r="B649" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C649" t="s">
         <v>154</v>
@@ -13519,7 +13519,7 @@
         <v>49</v>
       </c>
       <c r="B650" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C650" t="s">
         <v>154</v>
@@ -13536,7 +13536,7 @@
         <v>49</v>
       </c>
       <c r="B651" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C651" t="s">
         <v>154</v>
@@ -13553,10 +13553,10 @@
         <v>49</v>
       </c>
       <c r="B652" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C652" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D652">
         <v>10</v>
@@ -13570,10 +13570,10 @@
         <v>49</v>
       </c>
       <c r="B653" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C653" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D653">
         <v>10</v>
@@ -13587,7 +13587,7 @@
         <v>49</v>
       </c>
       <c r="B654" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C654" t="s">
         <v>154</v>
@@ -13604,7 +13604,7 @@
         <v>49</v>
       </c>
       <c r="B655" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C655" t="s">
         <v>154</v>
@@ -13621,7 +13621,7 @@
         <v>49</v>
       </c>
       <c r="B656" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C656" t="s">
         <v>154</v>
@@ -13638,7 +13638,7 @@
         <v>49</v>
       </c>
       <c r="B657" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C657" t="s">
         <v>154</v>
@@ -13655,7 +13655,7 @@
         <v>49</v>
       </c>
       <c r="B658" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C658" t="s">
         <v>154</v>
@@ -13672,7 +13672,7 @@
         <v>49</v>
       </c>
       <c r="B659" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C659" t="s">
         <v>154</v>
@@ -13706,7 +13706,7 @@
         <v>244</v>
       </c>
       <c r="C661" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E661" t="s">
         <v>150</v>
@@ -13720,7 +13720,7 @@
         <v>245</v>
       </c>
       <c r="C662" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D662">
         <v>20</v>
@@ -13751,7 +13751,7 @@
         <v>220</v>
       </c>
       <c r="C665" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D665">
         <v>10</v>
@@ -13771,7 +13771,7 @@
         <v>237</v>
       </c>
       <c r="C666" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D666">
         <v>10</v>
@@ -13788,7 +13788,7 @@
         <v>219</v>
       </c>
       <c r="B667" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C667" t="s">
         <v>154</v>
@@ -13805,7 +13805,7 @@
         <v>219</v>
       </c>
       <c r="B668" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C668" t="s">
         <v>154</v>
@@ -13822,7 +13822,7 @@
         <v>219</v>
       </c>
       <c r="B669" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C669" t="s">
         <v>154</v>
@@ -13839,7 +13839,7 @@
         <v>219</v>
       </c>
       <c r="B670" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C670" t="s">
         <v>154</v>
@@ -13856,7 +13856,7 @@
         <v>219</v>
       </c>
       <c r="B671" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C671" t="s">
         <v>154</v>
@@ -13873,7 +13873,7 @@
         <v>219</v>
       </c>
       <c r="B672" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C672" t="s">
         <v>154</v>
@@ -13890,10 +13890,10 @@
         <v>219</v>
       </c>
       <c r="B673" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C673" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D673">
         <v>10</v>
@@ -13907,10 +13907,10 @@
         <v>219</v>
       </c>
       <c r="B674" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C674" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D674">
         <v>10</v>
@@ -13924,7 +13924,7 @@
         <v>219</v>
       </c>
       <c r="B675" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C675" t="s">
         <v>154</v>
@@ -13941,7 +13941,7 @@
         <v>219</v>
       </c>
       <c r="B676" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C676" t="s">
         <v>154</v>
@@ -13958,7 +13958,7 @@
         <v>219</v>
       </c>
       <c r="B677" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C677" t="s">
         <v>154</v>
@@ -13975,7 +13975,7 @@
         <v>219</v>
       </c>
       <c r="B678" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C678" t="s">
         <v>154</v>
@@ -13992,7 +13992,7 @@
         <v>219</v>
       </c>
       <c r="B679" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C679" t="s">
         <v>154</v>
@@ -14009,7 +14009,7 @@
         <v>219</v>
       </c>
       <c r="B680" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C680" t="s">
         <v>154</v>
@@ -14043,7 +14043,7 @@
         <v>244</v>
       </c>
       <c r="C682" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E682" t="s">
         <v>150</v>
@@ -14057,7 +14057,7 @@
         <v>245</v>
       </c>
       <c r="C683" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D683">
         <v>20</v>
@@ -14074,7 +14074,7 @@
         <v>246</v>
       </c>
       <c r="C684" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E684" t="s">
         <v>150</v>
@@ -14088,7 +14088,7 @@
         <v>247</v>
       </c>
       <c r="C685" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D685">
         <v>20</v>
